--- a/опт и Краснодар/2023/11,23/15,11,23 Сочи ЗПФ/дв 15,11,23 счрсч зпф от филиала (Лыгин).xlsx
+++ b/опт и Краснодар/2023/11,23/15,11,23 Сочи ЗПФ/дв 15,11,23 счрсч зпф от филиала (Лыгин).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\15,11,23 Сочи ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\опт и Краснодар\2023\11,23\15,11,23 Сочи ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BEC38D-0020-495C-9C71-EA784B1EE3E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294E7311-CEE8-4B4C-9D33-0215CADCC8D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2675,11 +2675,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AA59"/>
+  <dimension ref="A1:AB59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB22" sqref="AB22"/>
+      <selection pane="bottomLeft" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -3127,7 +3127,7 @@
         <v>12</v>
       </c>
       <c r="Z8" s="22">
-        <f t="shared" ref="Z7:Z59" si="10">N8/Y8</f>
+        <f t="shared" ref="Z8:Z40" si="10">N8/Y8</f>
         <v>53</v>
       </c>
       <c r="AA8" s="2">
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>72</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>148.5</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>73</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="31" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" s="31" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="28" t="s">
         <v>74</v>
       </c>
@@ -6173,8 +6173,9 @@
         <f t="shared" si="12"/>
         <v>98.56</v>
       </c>
+      <c r="AB51" s="2"/>
     </row>
-    <row r="52" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>75</v>
       </c>
@@ -6213,7 +6214,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>76</v>
       </c>
@@ -6252,7 +6253,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>77</v>
       </c>
@@ -6291,7 +6292,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>78</v>
       </c>
@@ -6330,7 +6331,7 @@
         <v>57.599999999999994</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>79</v>
       </c>
@@ -6369,7 +6370,7 @@
         <v>199.8</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>80</v>
       </c>
@@ -6408,7 +6409,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>81</v>
       </c>
@@ -6447,7 +6448,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>82</v>
       </c>
